--- a/Documentation/BOM.xlsx
+++ b/Documentation/BOM.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Orion_Programs\!Source_Controlled\Avera-G60-Guitar-Design\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4E9E4B-B32E-4166-A3AC-2ABFC3089953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EFB1CE-B65A-4CE1-A17E-16DF48CF962F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C87BB195-3105-479C-84A5-3F121CF8484B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="2" r:id="rId1"/>
-    <sheet name="Total" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Part</t>
   </si>
@@ -130,9 +129,6 @@
     <t>Fret Markers</t>
   </si>
   <si>
-    <t>Stainless Steel barstock</t>
-  </si>
-  <si>
     <t>Neck Reinforcement</t>
   </si>
   <si>
@@ -208,9 +204,6 @@
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/c-k/JS202011CQN/1640097?so=83209932&amp;content=productdetail_CA </t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
     <t>Cost ($CAD)</t>
   </si>
   <si>
@@ -257,13 +250,34 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/bourns-inc/PDB183-GTR02-504A2/3780731?so=83209932&amp;content=productdetail_CA </t>
+  </si>
+  <si>
+    <t>Stainless Steel barstock 2.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.ca/uxcell-2-5mm-300mm-Stainless-Steel/dp/B082ZP51H5/ref=sr_1_8?crid=O8FOT18VKVES&amp;keywords=stainless+steel+bar+stock+2.5mm&amp;qid=1699750011&amp;sprefix=stainless+steel+bar+stock+2+5mm%2Caps%2C96&amp;sr=8-8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.ca/en/products/detail/switchcraft-inc/11/109515 </t>
+  </si>
+  <si>
+    <t>SC1085-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.metalsupermarkets.com/metals/aluminum/ </t>
+  </si>
+  <si>
+    <t>2K Clear</t>
+  </si>
+  <si>
+    <t>Total Cost ($CAD)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +298,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -400,18 +421,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -731,7 +753,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -746,25 +768,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2"/>
@@ -774,12 +796,12 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>15.02</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -788,8 +810,8 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -797,12 +819,12 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="7">
         <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -811,8 +833,8 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>38</v>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -820,12 +842,12 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>132</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -834,8 +856,8 @@
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>39</v>
+      <c r="G4" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -843,12 +865,12 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="7">
         <v>236</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -857,8 +879,8 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>40</v>
+      <c r="G5" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -866,31 +888,39 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="7">
+        <v>5.77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>45.52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -898,19 +928,19 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>18.62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -918,19 +948,19 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <v>4.28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
@@ -938,17 +968,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="7">
+        <v>10</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -956,19 +991,19 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>4.2699999999999996</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -976,12 +1011,12 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -990,8 +1025,8 @@
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>56</v>
+      <c r="G12" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -999,22 +1034,22 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="7">
         <v>106.4</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>74</v>
+      <c r="G13" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
@@ -1022,12 +1057,12 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1036,8 +1071,8 @@
       <c r="F14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>64</v>
+      <c r="G14" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
@@ -1045,19 +1080,19 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>22.7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="8" t="s">
         <v>71</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1065,19 +1100,19 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>14010201</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>72</v>
+      <c r="G16" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -1085,14 +1120,14 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="1">
         <v>6105</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>68</v>
+      <c r="G17" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1100,90 +1135,106 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>13.49</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="7"/>
       <c r="F19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="F20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>67</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D23" s="10"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D24" s="10"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D26" s="10"/>
+      <c r="D26" s="7">
+        <f>SUM(D2:D23)</f>
+        <v>920.06999999999994</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D27" s="10"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D28" s="10"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D29" s="10"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D30" s="10"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D31" s="10"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D32" s="10"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D33" s="10"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D34" s="10"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D35" s="10"/>
+      <c r="D35" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1201,39 +1252,11 @@
     <hyperlink ref="G13" r:id="rId12" xr:uid="{1FD6EE7D-6127-482F-A30C-D19E414C6A22}"/>
     <hyperlink ref="G7" r:id="rId13" xr:uid="{B74D72ED-DD1C-4B45-BDC3-95E7563249D4}"/>
     <hyperlink ref="G8" r:id="rId14" xr:uid="{40A6079E-1ED0-4123-8C49-87102BDDFC9B}"/>
+    <hyperlink ref="G18" r:id="rId15" xr:uid="{530FF82B-B79C-4F00-9823-E2DE127F6F20}"/>
+    <hyperlink ref="G6" r:id="rId16" xr:uid="{8FBD6C64-0FCA-4CA1-BD0B-CC138746ACBF}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{16335B64-D26B-48C8-A020-9AE490110F15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19EA82D-1FD1-40C6-BF27-93EEB33B31EF}">
-  <dimension ref="B1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="1">
-        <f>SUM(D:D)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Documentation/BOM.xlsx
+++ b/Documentation/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Orion_Programs\!Source_Controlled\Avera-G60-Guitar-Design\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EFB1CE-B65A-4CE1-A17E-16DF48CF962F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93334A-81A0-4CF4-AF55-9DD261AABA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C87BB195-3105-479C-84A5-3F121CF8484B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{C87BB195-3105-479C-84A5-3F121CF8484B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>Part</t>
   </si>
@@ -42,18 +42,12 @@
     <t>PQ-5042-00</t>
   </si>
   <si>
-    <t>42 mm length. Remember to check radius</t>
-  </si>
-  <si>
     <t>Bridge - Gotoh</t>
   </si>
   <si>
     <t>EV510T-FE</t>
   </si>
   <si>
-    <t>Decide between T or TS model</t>
-  </si>
-  <si>
     <t>Tuners - Gotoh</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>2x at $118 per</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Neck Reinforcement</t>
   </si>
   <si>
-    <t>Carbon Fibre stock 6x6</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://graphtech.com/collections/tusq-nuts-guitar/products/tusq-nut-42mm-flat-bottom-strat-nut </t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>Wiring</t>
   </si>
   <si>
-    <t>18 Gauge</t>
-  </si>
-  <si>
     <t>Gotoh</t>
   </si>
   <si>
@@ -255,9 +240,6 @@
     <t>Stainless Steel barstock 2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.ca/uxcell-2-5mm-300mm-Stainless-Steel/dp/B082ZP51H5/ref=sr_1_8?crid=O8FOT18VKVES&amp;keywords=stainless+steel+bar+stock+2.5mm&amp;qid=1699750011&amp;sprefix=stainless+steel+bar+stock+2+5mm%2Caps%2C96&amp;sr=8-8 </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.digikey.ca/en/products/detail/switchcraft-inc/11/109515 </t>
   </si>
   <si>
@@ -271,6 +253,30 @@
   </si>
   <si>
     <t>Total Cost ($CAD)</t>
+  </si>
+  <si>
+    <t>Carbon Fibre stock 6x10</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B07QV98MHB?psc=1&amp;ref=ppx_yo2ov_dt_b_product_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Car-Rep%C2%AE-Clear-Coat-400ml-Gloss/dp/B08WPFM6KK/ref=sr_1_5?keywords=CAR-REP&amp;qid=1701574844&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>22 Gauge</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B075M7YZXC/ref=sw_img_1?smid=A1JN94ZM0LQVNQ&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B082ZP51H5/ref=sw_img_1?smid=A30WUG2ZDGM0XM&amp;psc=1</t>
+  </si>
+  <si>
+    <t>42 mm length</t>
+  </si>
+  <si>
+    <t>2x at $118 USD per</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -372,12 +378,38 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
@@ -392,7 +424,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="2" tint="-0.249977111117893"/>
       </top>
       <bottom style="thin">
@@ -404,13 +436,114 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
       <right style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color theme="2" tint="-0.249977111117893"/>
       </bottom>
       <diagonal/>
@@ -421,19 +554,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -750,513 +894,597 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDE25C5-5AF7-4DBD-B83F-898464A3628E}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="121.109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="3" width="24.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="121.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15.02</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>160</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>148</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>292</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="6"/>
+      <c r="B7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5.77</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45.52</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>18.62</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4.28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>39</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="E14" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="9">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="E16" s="10">
+        <v>22.7</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>38</v>
+      </c>
+      <c r="F17" s="9">
+        <v>14010201</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="9">
+        <v>6105</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D19" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
-        <v>15.02</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>125</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="E19" s="10">
+        <v>13.49</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>132</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>236</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>5.77</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="B22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>45.52</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>18.62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>4.28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>106.4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>104</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>22.7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1">
-        <v>14010201</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="1">
-        <v>6105</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>13.49</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="F20" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="F22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D25" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D26" s="7">
-        <f>SUM(D2:D23)</f>
-        <v>920.06999999999994</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.4">
-      <c r="D35" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E25" s="5">
+        <f>SUM(E3:E23)</f>
+        <v>1027.07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E34" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{91D57B9A-3621-472E-8870-53029CC6F8FC}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{09907959-541E-462C-B703-92FA7DC0F70B}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{000FDD5F-ADEC-45B1-9A21-49892C7364AD}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{F38727DB-E86D-4885-BA1D-648B3A21319C}"/>
-    <hyperlink ref="G12" r:id="rId5" xr:uid="{BA230C24-259E-42F7-8DE7-19CAB89B8B07}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{CBD367E2-54B2-45F2-873C-E62DA0C4FEB3}"/>
-    <hyperlink ref="G9" r:id="rId7" xr:uid="{1BE39867-3329-41FD-84A9-46CC9DF43E69}"/>
-    <hyperlink ref="G14" r:id="rId8" xr:uid="{08F0920D-0721-4A7C-BFAC-253A5EF307C8}"/>
-    <hyperlink ref="G17" r:id="rId9" xr:uid="{3A58B5DD-632D-4C31-A1B3-D25AA72945E0}"/>
-    <hyperlink ref="G15" r:id="rId10" xr:uid="{38AADA1E-53F5-4FB0-B548-00C7CF5B88B1}"/>
-    <hyperlink ref="G16" r:id="rId11" xr:uid="{59AD86C5-B4FB-4CC3-BA31-93AC254949C9}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{1FD6EE7D-6127-482F-A30C-D19E414C6A22}"/>
-    <hyperlink ref="G7" r:id="rId13" xr:uid="{B74D72ED-DD1C-4B45-BDC3-95E7563249D4}"/>
-    <hyperlink ref="G8" r:id="rId14" xr:uid="{40A6079E-1ED0-4123-8C49-87102BDDFC9B}"/>
-    <hyperlink ref="G18" r:id="rId15" xr:uid="{530FF82B-B79C-4F00-9823-E2DE127F6F20}"/>
-    <hyperlink ref="G6" r:id="rId16" xr:uid="{8FBD6C64-0FCA-4CA1-BD0B-CC138746ACBF}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{16335B64-D26B-48C8-A020-9AE490110F15}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{91D57B9A-3621-472E-8870-53029CC6F8FC}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{09907959-541E-462C-B703-92FA7DC0F70B}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{000FDD5F-ADEC-45B1-9A21-49892C7364AD}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{F38727DB-E86D-4885-BA1D-648B3A21319C}"/>
+    <hyperlink ref="H13" r:id="rId5" xr:uid="{BA230C24-259E-42F7-8DE7-19CAB89B8B07}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{CBD367E2-54B2-45F2-873C-E62DA0C4FEB3}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{1BE39867-3329-41FD-84A9-46CC9DF43E69}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{08F0920D-0721-4A7C-BFAC-253A5EF307C8}"/>
+    <hyperlink ref="H18" r:id="rId9" xr:uid="{3A58B5DD-632D-4C31-A1B3-D25AA72945E0}"/>
+    <hyperlink ref="H16" r:id="rId10" xr:uid="{38AADA1E-53F5-4FB0-B548-00C7CF5B88B1}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{59AD86C5-B4FB-4CC3-BA31-93AC254949C9}"/>
+    <hyperlink ref="H14" r:id="rId12" xr:uid="{1FD6EE7D-6127-482F-A30C-D19E414C6A22}"/>
+    <hyperlink ref="H8" r:id="rId13" xr:uid="{B74D72ED-DD1C-4B45-BDC3-95E7563249D4}"/>
+    <hyperlink ref="H9" r:id="rId14" xr:uid="{40A6079E-1ED0-4123-8C49-87102BDDFC9B}"/>
+    <hyperlink ref="H19" r:id="rId15" xr:uid="{530FF82B-B79C-4F00-9823-E2DE127F6F20}"/>
+    <hyperlink ref="H7" r:id="rId16" xr:uid="{8FBD6C64-0FCA-4CA1-BD0B-CC138746ACBF}"/>
+    <hyperlink ref="H11" r:id="rId17" xr:uid="{16335B64-D26B-48C8-A020-9AE490110F15}"/>
+    <hyperlink ref="H20" r:id="rId18" xr:uid="{BC97B85B-9CAA-4BCC-B8BF-9D66C1627A5B}"/>
+    <hyperlink ref="H23" r:id="rId19" xr:uid="{57493A15-46F8-4B91-B7E1-5348D13A4E88}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{1FAEEC65-B0B1-4395-90DF-98D83C490F60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>